--- a/Dot NET/_Roadmap.xlsx
+++ b/Dot NET/_Roadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Dot NET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D38EB8-3B2D-D94C-AE95-870E8FF9907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD82CB3-B400-4548-AF3E-B6AC9AC999DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17900" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1014,13 +1014,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1047,9 +1047,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1087,7 +1087,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1193,7 +1193,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1335,7 +1335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1359,11 +1359,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254746C9-23C8-A249-80C0-0C547F97956A}">
   <dimension ref="A1:AA166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,72 +1398,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="12" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1479,21 +1479,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1509,13 +1509,13 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2768,11 +2768,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2786,6 +2781,11 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
